--- a/examples/sbtab-sbml/ecoli_noor_2016_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_noor_2016_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="502">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:20'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:46'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:20' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6771,9 +6771,6 @@
     <t>C00042</t>
   </si>
   <si>
-    <t xml:space="preserve">% </t>
-  </si>
-  <si>
     <t>Sedoheptulose 7-phosphate</t>
   </si>
   <si>
@@ -6783,7 +6780,10 @@
     <t>C05382</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>%</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6798,7 +6798,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6819,7 +6819,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6834,7 +6834,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6864,7 +6864,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6900,7 +6900,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6912,7 +6912,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6921,7 +6921,7 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:21' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!Element</t>
@@ -7017,10 +7017,10 @@
     <t>PPC_R00345</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:21' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7320,7 +7320,7 @@
     <t>enzyme cost weight</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7338,7 +7338,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7377,7 +7377,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7719,7 +7719,7 @@
     <t>ppc</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7731,7 +7731,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7743,7 +7743,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7758,13 +7758,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7773,13 +7773,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:22' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7788,19 +7788,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:47' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:47' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7821,7 +7821,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:47' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T3"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -8879,7 +8879,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.01" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" s="4">
         <v>0.574673</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="112" spans="1:3" ht="15.01" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112" s="4">
         <v>0.574673</v>
@@ -9979,24 +9979,24 @@
     </row>
     <row r="142" spans="1:3" ht="15.01" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0.40095304</v>
+      </c>
+      <c r="C142" s="4">
+        <v>0.5069000299999999</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="15.01" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B143" s="4">
-        <v>0.40095304</v>
-      </c>
-      <c r="C143" s="4">
-        <v>0.5069000299999999</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C143"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A143">
@@ -10098,7 +10098,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25877,7 +25877,7 @@
       <c r="AH168" s="4"/>
       <c r="AI168" s="4"/>
       <c r="AJ168" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK168" s="4"/>
       <c r="AL168" s="4" t="s">
@@ -25899,7 +25899,7 @@
         <v>299</v>
       </c>
       <c r="AZ168" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BA168" s="4"/>
       <c r="BB168" s="4"/>
@@ -25972,7 +25972,7 @@
       <c r="AH169" s="4"/>
       <c r="AI169" s="4"/>
       <c r="AJ169" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK169" s="4"/>
       <c r="AL169" s="4" t="s">
@@ -25994,7 +25994,7 @@
         <v>300</v>
       </c>
       <c r="AZ169" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BA169" s="4"/>
       <c r="BB169" s="4"/>
@@ -35040,7 +35040,7 @@
       <c r="AH269" s="4"/>
       <c r="AI269" s="4"/>
       <c r="AJ269" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK269" s="4"/>
       <c r="AL269" s="4"/>
@@ -35058,7 +35058,7 @@
       <c r="AX269" s="4"/>
       <c r="AY269" s="4"/>
       <c r="AZ269" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BA269" s="4"/>
       <c r="BB269" s="4"/>
@@ -44216,7 +44216,7 @@
       <c r="AH369" s="4"/>
       <c r="AI369" s="4"/>
       <c r="AJ369" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK369" s="4"/>
       <c r="AL369" s="4"/>
@@ -44234,7 +44234,7 @@
       <c r="AX369" s="4"/>
       <c r="AY369" s="4"/>
       <c r="AZ369" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BA369" s="4"/>
       <c r="BB369" s="4"/>
@@ -46995,7 +46995,7 @@
       <c r="BW399" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW399"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A399">
@@ -47351,7 +47351,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -47641,7 +47641,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -50200,9 +50200,7 @@
       </c>
     </row>
     <row r="32" spans="1:47" ht="15.01" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -50214,41 +50212,67 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="U32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="Z32" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
+      <c r="AD32" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
+      <c r="AI32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
-      <c r="AN32" s="4"/>
+      <c r="AN32" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
       <c r="AR32" s="4"/>
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
-      <c r="AU32" s="4"/>
+      <c r="AU32" s="4" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="33" spans="1:47" ht="15.01" customHeight="1">
       <c r="A33" s="4"/>
@@ -50264,12 +50288,10 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="4" t="s">
-        <v>456</v>
-      </c>
+      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -50278,9 +50300,7 @@
       <c r="U33" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V33" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="V33" s="4"/>
       <c r="W33" s="4" t="b">
         <v>0</v>
       </c>
@@ -50294,9 +50314,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="4" t="s">
-        <v>457</v>
-      </c>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
@@ -50312,21 +50330,17 @@
       </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
-      <c r="AN33" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
-      <c r="AU33" s="4" t="s">
-        <v>458</v>
-      </c>
+      <c r="AU33" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU33"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A33">
@@ -50525,7 +50539,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -50642,7 +50656,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -50766,7 +50780,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -50856,7 +50870,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -52960,20 +52974,22 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="15.01" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="L42" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -52985,18 +53001,26 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
+      <c r="X42" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
+      <c r="AD42" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
+      <c r="AH42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="43" spans="1:35" ht="15.01" customHeight="1">
       <c r="A43" s="4"/>
@@ -53004,16 +53028,14 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -53026,29 +53048,23 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="X43" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
-      <c r="AD43" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AI43" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="AI43" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI43"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A43">
@@ -53203,7 +53219,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -53252,7 +53268,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -53301,7 +53317,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -53352,7 +53368,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -53409,7 +53425,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -53487,7 +53503,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -53591,7 +53607,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -53679,7 +53695,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -53801,7 +53817,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -53915,7 +53931,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -54052,7 +54068,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -54203,7 +54219,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -54297,7 +54313,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -54351,7 +54367,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/ecoli_noor_2016_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_noor_2016_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="502">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:46'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:11'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:11' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:11' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6783,7 +6783,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6798,7 +6798,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6819,7 +6819,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6834,7 +6834,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6864,7 +6864,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6900,7 +6900,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6912,7 +6912,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6921,7 +6921,7 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:12' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!Element</t>
@@ -7017,10 +7017,10 @@
     <t>PPC_R00345</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:12' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7320,7 +7320,7 @@
     <t>enzyme cost weight</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7338,7 +7338,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7377,7 +7377,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8' Document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:12' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7719,7 +7719,7 @@
     <t>ppc</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7731,7 +7731,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7743,7 +7743,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7758,13 +7758,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7773,13 +7773,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7788,19 +7788,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:47' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:47' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7821,7 +7821,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:47' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/ecoli_noor_2016_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_noor_2016_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="502">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:11'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:34'</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:11' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:11' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6783,7 +6783,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6798,7 +6798,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6819,7 +6819,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6834,7 +6834,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6864,7 +6864,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6900,7 +6900,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6912,7 +6912,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:34' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6921,7 +6921,7 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:12' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
@@ -7017,10 +7017,10 @@
     <t>PPC_R00345</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:12' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7320,7 +7320,7 @@
     <t>enzyme cost weight</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7338,7 +7338,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7377,7 +7377,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:12' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' document='E. coli central carbon metabolism - unbalanced kinetic data' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7719,7 +7719,7 @@
     <t>ppc</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7731,7 +7731,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7743,7 +7743,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7758,13 +7758,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7773,13 +7773,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7788,19 +7788,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7821,7 +7821,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:12' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:35' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
